--- a/output/fit_clients/fit_round_159.xlsx
+++ b/output/fit_clients/fit_round_159.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -490,28 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2306252581.092464</v>
+        <v>1777506447.083754</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07000156479298078</v>
+        <v>0.1148383490780614</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04183851831836485</v>
+        <v>0.02893761854944611</v>
       </c>
       <c r="H2" t="b">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1153126327.36998</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2348029798.650847</v>
+        <v>1908819881.706449</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1261934252857753</v>
+        <v>0.1723081060571809</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04551398855141402</v>
+        <v>0.0306140354486727</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>3</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1174014993.247039</v>
       </c>
     </row>
     <row r="4">
@@ -558,28 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>5053741634.180701</v>
+        <v>4242235535.936549</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1260587024919756</v>
+        <v>0.1396752454308414</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03416736941346351</v>
+        <v>0.02756879115326747</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>58</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2526870905.876571</v>
       </c>
     </row>
     <row r="5">
@@ -592,28 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2908045213.038959</v>
+        <v>2569603481.990711</v>
       </c>
       <c r="F5" t="n">
-        <v>0.06842735641737066</v>
+        <v>0.08482679624230252</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04529088299131571</v>
+        <v>0.04919720675159156</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>65</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1454022682.38783</v>
       </c>
     </row>
     <row r="6">
@@ -626,28 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2468275675.904565</v>
+        <v>2328697077.965985</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1202956952252616</v>
+        <v>0.1188897489565825</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03983207991748031</v>
+        <v>0.05328885681545759</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>25</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1234137816.834503</v>
       </c>
     </row>
     <row r="7">
@@ -660,28 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2436965396.780707</v>
+        <v>2150287829.310056</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1009582629830351</v>
+        <v>0.1008796222739057</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04750081911529004</v>
+        <v>0.04054737990361412</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>48</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1218482717.500681</v>
       </c>
     </row>
     <row r="8">
@@ -694,28 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3559729406.05792</v>
+        <v>3252839433.521915</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1976574478511724</v>
+        <v>0.1511276967978359</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02291345481278746</v>
+        <v>0.02221838392001912</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>51</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1779864817.724424</v>
       </c>
     </row>
     <row r="9">
@@ -728,28 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2036919096.294865</v>
+        <v>1620544793.555739</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1493550758493097</v>
+        <v>0.1579037070179999</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03180104431168666</v>
+        <v>0.02536833292613973</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>1018459569.597146</v>
       </c>
     </row>
     <row r="10">
@@ -762,28 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4592990683.979272</v>
+        <v>5162619334.039581</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1750241501031689</v>
+        <v>0.1397654862804924</v>
       </c>
       <c r="G10" t="n">
-        <v>0.034263310747795</v>
+        <v>0.03287827255593454</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>67</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2296495409.778669</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -796,28 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3285198511.866487</v>
+        <v>3960216329.307297</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1835695696937306</v>
+        <v>0.1325764073019918</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04516017080808976</v>
+        <v>0.03486573251962501</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>66</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1642599218.73259</v>
       </c>
     </row>
     <row r="12">
@@ -830,28 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2956256179.637276</v>
+        <v>2540094243.159341</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1253540233370182</v>
+        <v>0.1203350234617936</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04858336519710318</v>
+        <v>0.05031348482475788</v>
       </c>
       <c r="H12" t="b">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>55</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1478128103.803122</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -864,28 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3547535779.298703</v>
+        <v>3893612215.669621</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0863305787936188</v>
+        <v>0.08335491343611488</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02757705897449008</v>
+        <v>0.02012331916525244</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>53</v>
-      </c>
-      <c r="J13" t="n">
-        <v>1773767967.535526</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -898,28 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3842542352.661744</v>
+        <v>2973076497.420238</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1374995506223249</v>
+        <v>0.1558508689064623</v>
       </c>
       <c r="G14" t="n">
-        <v>0.04030372114783089</v>
+        <v>0.02760613339416205</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>51</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1921271149.722594</v>
       </c>
     </row>
     <row r="15">
@@ -938,22 +850,16 @@
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1303010983.837494</v>
+        <v>1529903424.847865</v>
       </c>
       <c r="F15" t="n">
-        <v>0.08143484483317409</v>
+        <v>0.08228014687616468</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04353644729880448</v>
+        <v>0.04883604509680307</v>
       </c>
       <c r="H15" t="b">
-        <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>651505532.7236874</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -966,28 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2387991530.829512</v>
+        <v>1816767193.540728</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1008041547549712</v>
+        <v>0.08608841021706566</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03474446036528485</v>
+        <v>0.04373299949324129</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>25</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1193995806.204368</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3614593637.720333</v>
+        <v>4136732628.365521</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1574700762196336</v>
+        <v>0.170524752526277</v>
       </c>
       <c r="G17" t="n">
-        <v>0.05269041491079683</v>
+        <v>0.03633191411910092</v>
       </c>
       <c r="H17" t="b">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>46</v>
-      </c>
-      <c r="J17" t="n">
-        <v>1807296872.487956</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1034,28 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2693278358.16375</v>
+        <v>3905423147.439743</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1640210003234477</v>
+        <v>0.1154780961630223</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02965222872452221</v>
+        <v>0.02241677212002913</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>51</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1346639231.476236</v>
       </c>
     </row>
     <row r="19">
@@ -1068,28 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>967539413.6402864</v>
+        <v>1017507360.121683</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1596420226032747</v>
+        <v>0.1469064566166205</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02512537522936279</v>
+        <v>0.01819834922886449</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>483769728.1281429</v>
       </c>
     </row>
     <row r="20">
@@ -1108,22 +990,16 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2608618372.994343</v>
+        <v>2143467051.937952</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1085116895208484</v>
+        <v>0.1431609740052124</v>
       </c>
       <c r="G20" t="n">
-        <v>0.03004262766190038</v>
+        <v>0.02129883563432129</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>25</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1304309147.968851</v>
       </c>
     </row>
     <row r="21">
@@ -1136,28 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2384246134.367476</v>
+        <v>2210769137.877545</v>
       </c>
       <c r="F21" t="n">
-        <v>0.06939286129515559</v>
+        <v>0.07293652908503309</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04392498359906223</v>
+        <v>0.03743915283006294</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>14</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1192123066.350151</v>
       </c>
     </row>
     <row r="22">
@@ -1170,28 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3614169391.742115</v>
+        <v>2758303899.369256</v>
       </c>
       <c r="F22" t="n">
-        <v>0.09363810704033788</v>
+        <v>0.09350885717172207</v>
       </c>
       <c r="G22" t="n">
-        <v>0.03788086865230685</v>
+        <v>0.05660546554549016</v>
       </c>
       <c r="H22" t="b">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>44</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1807084720.58562</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1204,28 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1432380495.320819</v>
+        <v>1363676299.456916</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1342641641656507</v>
+        <v>0.1605837507878878</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03374748731357689</v>
+        <v>0.04015411904541354</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>716190244.9541242</v>
       </c>
     </row>
     <row r="24">
@@ -1244,22 +1102,16 @@
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3704874961.7226</v>
+        <v>3342686953.821604</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1448153051906186</v>
+        <v>0.1462081240116652</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02837962970116364</v>
+        <v>0.03705544004518539</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>46</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1852437468.676284</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -1272,28 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1337083551.739792</v>
+        <v>1424111120.080615</v>
       </c>
       <c r="F25" t="n">
-        <v>0.07638624433678942</v>
+        <v>0.09987150535615884</v>
       </c>
       <c r="G25" t="n">
-        <v>0.01874559192000635</v>
+        <v>0.02844635183038485</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>668541762.2710934</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1449968199.50355</v>
+        <v>1052136247.918387</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1051943333405858</v>
+        <v>0.0934528187700171</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02630323903302871</v>
+        <v>0.02663142603861752</v>
       </c>
       <c r="H26" t="b">
-        <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>724984181.922487</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
@@ -1346,22 +1186,16 @@
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>2866499739.329847</v>
+        <v>3864329933.295709</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1502002924725166</v>
+        <v>0.1363275694367468</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02630295302321167</v>
+        <v>0.01663536219325137</v>
       </c>
       <c r="H27" t="b">
         <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>36</v>
-      </c>
-      <c r="J27" t="n">
-        <v>1433249936.065048</v>
       </c>
     </row>
     <row r="28">
@@ -1374,28 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2796159973.947482</v>
+        <v>3248124395.620243</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1427141130634242</v>
+        <v>0.1303106285530873</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04478209789423551</v>
+        <v>0.03603468856370742</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>51</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1398079980.487767</v>
       </c>
     </row>
     <row r="29">
@@ -1408,28 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4222810106.959547</v>
+        <v>5025468865.29603</v>
       </c>
       <c r="F29" t="n">
-        <v>0.09488883657479474</v>
+        <v>0.09123305824894914</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03523746621603838</v>
+        <v>0.03439773525148661</v>
       </c>
       <c r="H29" t="b">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>70</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2111405054.826376</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -1442,28 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1647562140.045491</v>
+        <v>2331184360.461255</v>
       </c>
       <c r="F30" t="n">
-        <v>0.0842559131494596</v>
+        <v>0.08435913638496897</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03324219180091018</v>
+        <v>0.03441581465140618</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>823781067.2887332</v>
       </c>
     </row>
     <row r="31">
@@ -1476,28 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>941003569.1596334</v>
+        <v>1074335588.722743</v>
       </c>
       <c r="F31" t="n">
-        <v>0.09974543446902173</v>
+        <v>0.09575715409343927</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03695382139890197</v>
+        <v>0.03505800090822929</v>
       </c>
       <c r="H31" t="b">
-        <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>470501796.9677916</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
@@ -1516,22 +1326,16 @@
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1835414626.27047</v>
+        <v>1457698185.255802</v>
       </c>
       <c r="F32" t="n">
-        <v>0.08150338746324524</v>
+        <v>0.0837754197360224</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03378895294271587</v>
+        <v>0.03706771108865027</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>917707450.9398096</v>
       </c>
     </row>
     <row r="33">
@@ -1544,28 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>1924793225.218903</v>
+        <v>2007341620.143068</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1708322329501105</v>
+        <v>0.1620604074588206</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05136573611807809</v>
+        <v>0.0457852633506686</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>47</v>
-      </c>
-      <c r="J33" t="n">
-        <v>962396699.7883292</v>
       </c>
     </row>
     <row r="34">
@@ -1584,22 +1382,16 @@
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1399129431.307999</v>
+        <v>1334822780.406736</v>
       </c>
       <c r="F34" t="n">
-        <v>0.08955225508218728</v>
+        <v>0.1136159047948175</v>
       </c>
       <c r="G34" t="n">
-        <v>0.0195220465691723</v>
+        <v>0.01935652216593233</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>699564687.985961</v>
       </c>
     </row>
     <row r="35">
@@ -1612,28 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1216391291.249536</v>
+        <v>1160404548.698412</v>
       </c>
       <c r="F35" t="n">
-        <v>0.08318330867295583</v>
+        <v>0.08505040286204686</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03383214630211497</v>
+        <v>0.02898999249167893</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>608195616.7100812</v>
       </c>
     </row>
     <row r="36">
@@ -1646,28 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>3084630958.067756</v>
+        <v>2696565125.386776</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1232672795434163</v>
+        <v>0.1239925973564769</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02112002345961758</v>
+        <v>0.02198289791269399</v>
       </c>
       <c r="H36" t="b">
-        <v>1</v>
-      </c>
-      <c r="I36" t="n">
-        <v>40</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1542315454.142446</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1686,22 +1466,16 @@
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2097784725.08572</v>
+        <v>2497359601.036225</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1120630244696454</v>
+        <v>0.09395232499375099</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03335694100521109</v>
+        <v>0.03316846008014202</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>43</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1048892403.234039</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1686387278.680292</v>
+        <v>1999064763.628517</v>
       </c>
       <c r="F38" t="n">
-        <v>0.07431719394999126</v>
+        <v>0.09067550351644581</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03398890267694349</v>
+        <v>0.03207514593228241</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>843193662.2339604</v>
       </c>
     </row>
     <row r="39">
@@ -1748,28 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1527346303.79806</v>
+        <v>1840514320.306719</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1863055749260065</v>
+        <v>0.1205214736732366</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02039368456588555</v>
+        <v>0.02573627801518681</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>763673218.1536059</v>
       </c>
     </row>
     <row r="40">
@@ -1782,28 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1490613929.847681</v>
+        <v>1623863910.849121</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1594116107519176</v>
+        <v>0.1487458476597094</v>
       </c>
       <c r="G40" t="n">
-        <v>0.03819416843496084</v>
+        <v>0.05960854219177648</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>745306933.4441262</v>
       </c>
     </row>
     <row r="41">
@@ -1816,28 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>1808505274.860821</v>
+        <v>2820732770.769591</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1358511325675575</v>
+        <v>0.1502504831843596</v>
       </c>
       <c r="G41" t="n">
-        <v>0.042176238334743</v>
+        <v>0.03149581340072025</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>39</v>
-      </c>
-      <c r="J41" t="n">
-        <v>904252730.3361349</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3522826379.043059</v>
+        <v>3691211229.033825</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1080299107873972</v>
+        <v>0.09965772464757071</v>
       </c>
       <c r="G42" t="n">
-        <v>0.02988260841886126</v>
+        <v>0.03109302035150698</v>
       </c>
       <c r="H42" t="b">
-        <v>1</v>
-      </c>
-      <c r="I42" t="n">
-        <v>52</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1761413185.906721</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1884,28 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>3063506257.559175</v>
+        <v>2417116102.956589</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1413123212310858</v>
+        <v>0.1642902534042364</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01807765378602638</v>
+        <v>0.02553417651854796</v>
       </c>
       <c r="H43" t="b">
-        <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>55</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1531753120.749331</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1918,28 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2200488083.364562</v>
+        <v>2013913793.252002</v>
       </c>
       <c r="F44" t="n">
-        <v>0.06601547003788462</v>
+        <v>0.07985796722676723</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02335723941990487</v>
+        <v>0.02565325113618793</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>1100244187.995438</v>
       </c>
     </row>
     <row r="45">
@@ -1952,28 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1870725243.4501</v>
+        <v>1964516577.758229</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1491416554401444</v>
+        <v>0.1178982984307441</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04121431249699227</v>
+        <v>0.05201937693383085</v>
       </c>
       <c r="H45" t="b">
-        <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>935362599.5207779</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46">
@@ -1986,28 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4958888021.610296</v>
+        <v>4270137983.43304</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1460508320519405</v>
+        <v>0.1309678311187991</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04113069843709226</v>
+        <v>0.04454333786993983</v>
       </c>
       <c r="H46" t="b">
         <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>57</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2479444035.195122</v>
       </c>
     </row>
     <row r="47">
@@ -2020,28 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3670065568.844991</v>
+        <v>4792426898.797031</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1442367756501836</v>
+        <v>0.2009700134279443</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05450249288037348</v>
+        <v>0.04422427821980253</v>
       </c>
       <c r="H47" t="b">
         <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>43</v>
-      </c>
-      <c r="J47" t="n">
-        <v>1835032764.812537</v>
       </c>
     </row>
     <row r="48">
@@ -2060,22 +1774,16 @@
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3250965130.304951</v>
+        <v>3471204586.245773</v>
       </c>
       <c r="F48" t="n">
-        <v>0.100378691831665</v>
+        <v>0.09789736546845691</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03573407137905717</v>
+        <v>0.02700837477967138</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>56</v>
-      </c>
-      <c r="J48" t="n">
-        <v>1625482643.003206</v>
       </c>
     </row>
     <row r="49">
@@ -2088,28 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1268298405.193955</v>
+        <v>1921005209.480013</v>
       </c>
       <c r="F49" t="n">
-        <v>0.181438602588067</v>
+        <v>0.1541459183421901</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04173912293789608</v>
+        <v>0.03024922895816526</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>634149270.6153544</v>
       </c>
     </row>
     <row r="50">
@@ -2128,22 +1830,16 @@
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3249818022.953591</v>
+        <v>3365900833.957047</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1571577517947026</v>
+        <v>0.1436445509226186</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04340797793775183</v>
+        <v>0.04793696565767509</v>
       </c>
       <c r="H50" t="b">
-        <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>54</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1624909053.488598</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51">
@@ -2156,28 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1054157063.400228</v>
+        <v>968018374.3322916</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1623658701635635</v>
+        <v>0.1319068623679254</v>
       </c>
       <c r="G51" t="n">
-        <v>0.05281805170619084</v>
+        <v>0.04083570691548666</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>527078606.8664497</v>
       </c>
     </row>
     <row r="52">
@@ -2196,22 +1886,16 @@
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4416861290.427018</v>
+        <v>5235152876.169085</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1275801329893353</v>
+        <v>0.08373960466706769</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05815720602903887</v>
+        <v>0.04283218570188907</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>66</v>
-      </c>
-      <c r="J52" t="n">
-        <v>2208430677.129823</v>
       </c>
     </row>
     <row r="53">
@@ -2224,28 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2993743903.675308</v>
+        <v>2348436188.631967</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1891782572963056</v>
+        <v>0.1793213660566274</v>
       </c>
       <c r="G53" t="n">
-        <v>0.0247630591611501</v>
+        <v>0.02581474683071287</v>
       </c>
       <c r="H53" t="b">
         <v>1</v>
-      </c>
-      <c r="I53" t="n">
-        <v>45</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1496871984.638738</v>
       </c>
     </row>
     <row r="54">
@@ -2264,22 +1942,16 @@
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4381766374.742161</v>
+        <v>4501052087.409256</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1074195163590208</v>
+        <v>0.1690003835366454</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04779816999741715</v>
+        <v>0.05059244321028589</v>
       </c>
       <c r="H54" t="b">
         <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>54</v>
-      </c>
-      <c r="J54" t="n">
-        <v>2190883281.40167</v>
       </c>
     </row>
     <row r="55">
@@ -2298,22 +1970,16 @@
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4229358954.676938</v>
+        <v>4941977230.621868</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1676541178290494</v>
+        <v>0.1954396863618398</v>
       </c>
       <c r="G55" t="n">
-        <v>0.03018882599168095</v>
+        <v>0.02409046445390274</v>
       </c>
       <c r="H55" t="b">
         <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>44</v>
-      </c>
-      <c r="J55" t="n">
-        <v>2114679462.360008</v>
       </c>
     </row>
     <row r="56">
@@ -2332,22 +1998,16 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1421675752.026021</v>
+        <v>1573977380.620027</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1469087768750868</v>
+        <v>0.1300008515794344</v>
       </c>
       <c r="G56" t="n">
-        <v>0.041730114597922</v>
+        <v>0.04168837773455881</v>
       </c>
       <c r="H56" t="b">
-        <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>710837929.8515959</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57">
@@ -2360,28 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>2781791265.953801</v>
+        <v>3353354750.3055</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1525316454986872</v>
+        <v>0.1599024518125733</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02691093244887787</v>
+        <v>0.02361330093874638</v>
       </c>
       <c r="H57" t="b">
-        <v>1</v>
-      </c>
-      <c r="I57" t="n">
-        <v>50</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1390895619.029895</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -2394,28 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1684626124.976082</v>
+        <v>1443197957.12811</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1744585434129341</v>
+        <v>0.20139907087691</v>
       </c>
       <c r="G58" t="n">
-        <v>0.0336237619232882</v>
+        <v>0.02829129834453846</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>842313076.7355777</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>5012561359.820281</v>
+        <v>3522236623.254616</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1079611237276046</v>
+        <v>0.1195042974688353</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03367984947142964</v>
+        <v>0.04395315452374705</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>44</v>
-      </c>
-      <c r="J59" t="n">
-        <v>2506280606.99301</v>
       </c>
     </row>
     <row r="60">
@@ -2462,28 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3038640950.329745</v>
+        <v>2288110098.243053</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1782511813729283</v>
+        <v>0.1284774019356527</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02381624769381362</v>
+        <v>0.02224979883443386</v>
       </c>
       <c r="H60" t="b">
         <v>1</v>
-      </c>
-      <c r="I60" t="n">
-        <v>50</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1519320549.526526</v>
       </c>
     </row>
     <row r="61">
@@ -2496,28 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2697829426.421504</v>
+        <v>2966778930.92422</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1498847436146676</v>
+        <v>0.1176859106747748</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02060731349992388</v>
+        <v>0.02960208464842403</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>55</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1348914722.139661</v>
       </c>
     </row>
     <row r="62">
@@ -2530,28 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1606497808.402206</v>
+        <v>1692079937.519597</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1413204446642431</v>
+        <v>0.1677509048832961</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03643576082277659</v>
+        <v>0.04135086117758868</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>803248903.1986867</v>
       </c>
     </row>
     <row r="63">
@@ -2564,28 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3783528220.390956</v>
+        <v>4108742842.916196</v>
       </c>
       <c r="F63" t="n">
-        <v>0.07949588641671099</v>
+        <v>0.09319612050515008</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03957416718129073</v>
+        <v>0.04330345294452094</v>
       </c>
       <c r="H63" t="b">
         <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>46</v>
-      </c>
-      <c r="J63" t="n">
-        <v>1891764182.195368</v>
       </c>
     </row>
     <row r="64">
@@ -2598,28 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3623843283.509465</v>
+        <v>5046865036.930157</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1705389756141612</v>
+        <v>0.1371156641383677</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03130905735545159</v>
+        <v>0.03103043062030921</v>
       </c>
       <c r="H64" t="b">
-        <v>1</v>
-      </c>
-      <c r="I64" t="n">
-        <v>49</v>
-      </c>
-      <c r="J64" t="n">
-        <v>1811921651.119699</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -2632,28 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4776977577.679737</v>
+        <v>4758120199.477274</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1508025205256932</v>
+        <v>0.1223542430640951</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02937635007085053</v>
+        <v>0.02355137633027441</v>
       </c>
       <c r="H65" t="b">
-        <v>1</v>
-      </c>
-      <c r="I65" t="n">
-        <v>57</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2388488761.02129</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
@@ -2672,22 +2278,16 @@
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4667063773.57898</v>
+        <v>4520326526.839246</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1496813968866262</v>
+        <v>0.09927476362133686</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04710522805066071</v>
+        <v>0.03407329774500768</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>46</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2333531896.062361</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2700,28 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2117521326.480123</v>
+        <v>3358891813.012068</v>
       </c>
       <c r="F67" t="n">
-        <v>0.07129399928603879</v>
+        <v>0.0863248648478025</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04750717883263752</v>
+        <v>0.04514501124525416</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>52</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1058760756.197456</v>
       </c>
     </row>
     <row r="68">
@@ -2734,28 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5990711469.577352</v>
+        <v>6018127420.958855</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1091106618032785</v>
+        <v>0.1393178444988608</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03349591835558546</v>
+        <v>0.04004598568648809</v>
       </c>
       <c r="H68" t="b">
-        <v>1</v>
-      </c>
-      <c r="I68" t="n">
-        <v>50</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2995355851.172512</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
@@ -2768,28 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1984761822.553858</v>
+        <v>2342174723.564477</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1356455398327215</v>
+        <v>0.11193558644598</v>
       </c>
       <c r="G69" t="n">
-        <v>0.03745695655742051</v>
+        <v>0.05973941774247078</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>992380914.2544852</v>
       </c>
     </row>
     <row r="70">
@@ -2808,22 +2390,16 @@
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3312410866.13947</v>
+        <v>3163705603.941165</v>
       </c>
       <c r="F70" t="n">
-        <v>0.0892836309525982</v>
+        <v>0.09007401602937248</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03332654675945358</v>
+        <v>0.04628203855370395</v>
       </c>
       <c r="H70" t="b">
         <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>45</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1656205430.334298</v>
       </c>
     </row>
     <row r="71">
@@ -2836,28 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5032975253.351451</v>
+        <v>5447447634.130954</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1471520803108646</v>
+        <v>0.1595096048309089</v>
       </c>
       <c r="G71" t="n">
-        <v>0.0215161305395689</v>
+        <v>0.03199558871432592</v>
       </c>
       <c r="H71" t="b">
         <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>58</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2516487734.810942</v>
       </c>
     </row>
     <row r="72">
@@ -2870,28 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1502364824.016515</v>
+        <v>1760232596.002511</v>
       </c>
       <c r="F72" t="n">
-        <v>0.09500659229977484</v>
+        <v>0.1069696667454235</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04300315818694817</v>
+        <v>0.03283743575423596</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>751182438.5463405</v>
       </c>
     </row>
     <row r="73">
@@ -2904,28 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2671139781.701461</v>
+        <v>2866108007.947947</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1016980867311363</v>
+        <v>0.09588131940023466</v>
       </c>
       <c r="G73" t="n">
-        <v>0.0506346555435499</v>
+        <v>0.04305564361405258</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>61</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1335569916.891881</v>
       </c>
     </row>
     <row r="74">
@@ -2944,22 +2502,16 @@
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3292959810.722686</v>
+        <v>3377952964.856761</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1657125070127383</v>
+        <v>0.1147726548993743</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03420204069236891</v>
+        <v>0.02325143059869396</v>
       </c>
       <c r="H74" t="b">
-        <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>54</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1646479945.412752</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75">
@@ -2978,22 +2530,16 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1794458403.059498</v>
+        <v>1880719220.603547</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1649830006013636</v>
+        <v>0.1206207122713009</v>
       </c>
       <c r="G75" t="n">
-        <v>0.0263594506752131</v>
+        <v>0.02503718108642779</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>897229184.9236</v>
       </c>
     </row>
     <row r="76">
@@ -3012,22 +2558,16 @@
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>5288252711.328291</v>
+        <v>4488166937.951789</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1137748503032997</v>
+        <v>0.09946989662119439</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02496036573449171</v>
+        <v>0.02687830470384446</v>
       </c>
       <c r="H76" t="b">
         <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>37</v>
-      </c>
-      <c r="J76" t="n">
-        <v>2644126394.392419</v>
       </c>
     </row>
     <row r="77">
@@ -3040,28 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2303843618.514027</v>
+        <v>2091835930.37042</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1295499364565039</v>
+        <v>0.1462805025145323</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02456295062168546</v>
+        <v>0.0306782414890699</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>1151921915.606439</v>
       </c>
     </row>
     <row r="78">
@@ -3074,28 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4555090446.210964</v>
+        <v>4654517616.428081</v>
       </c>
       <c r="F78" t="n">
-        <v>0.09556485459029604</v>
+        <v>0.09992768910958993</v>
       </c>
       <c r="G78" t="n">
-        <v>0.03820578207117614</v>
+        <v>0.04834345873959312</v>
       </c>
       <c r="H78" t="b">
         <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>55</v>
-      </c>
-      <c r="J78" t="n">
-        <v>2277545149.075205</v>
       </c>
     </row>
     <row r="79">
@@ -3108,28 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1451235789.813479</v>
+        <v>1447776738.710266</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1388221464886589</v>
+        <v>0.1638135389436098</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03633215454601778</v>
+        <v>0.02877800283326465</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>725617920.5601066</v>
       </c>
     </row>
     <row r="80">
@@ -3148,22 +2670,16 @@
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4213959740.31533</v>
+        <v>4274754489.307354</v>
       </c>
       <c r="F80" t="n">
-        <v>0.09026154674360638</v>
+        <v>0.1029350316303986</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03616672113514543</v>
+        <v>0.03230971924880094</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>33</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2106979880.236405</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -3176,28 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3195184218.12486</v>
+        <v>3816302761.577362</v>
       </c>
       <c r="F81" t="n">
-        <v>0.09667558086132511</v>
+        <v>0.1313139654743661</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02506363903346899</v>
+        <v>0.02377758883730248</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>35</v>
-      </c>
-      <c r="J81" t="n">
-        <v>1597592042.325749</v>
       </c>
     </row>
     <row r="82">
@@ -3210,28 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>3805039543.524615</v>
+        <v>4604215440.000442</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2080734213847765</v>
+        <v>0.1924128246740727</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02453308242285534</v>
+        <v>0.01960095552878517</v>
       </c>
       <c r="H82" t="b">
         <v>1</v>
-      </c>
-      <c r="I82" t="n">
-        <v>56</v>
-      </c>
-      <c r="J82" t="n">
-        <v>1902519822.37826</v>
       </c>
     </row>
     <row r="83">
@@ -3244,28 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2002398819.963219</v>
+        <v>1718187289.244222</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1466862427331216</v>
+        <v>0.09849259624984039</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03925358829541659</v>
+        <v>0.04067021462171838</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="n">
-        <v>1001199395.592124</v>
       </c>
     </row>
     <row r="84">
@@ -3284,22 +2782,16 @@
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2186999711.897969</v>
+        <v>1722713422.512044</v>
       </c>
       <c r="F84" t="n">
-        <v>0.07760031716828872</v>
+        <v>0.07626346970286405</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03539421486892644</v>
+        <v>0.04016481311903238</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>2</v>
-      </c>
-      <c r="J84" t="n">
-        <v>1093499833.539774</v>
       </c>
     </row>
     <row r="85">
@@ -3312,28 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3645896742.119107</v>
+        <v>3278138677.348807</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1485303986648364</v>
+        <v>0.1606155988091749</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04147932868803241</v>
+        <v>0.03539690226875174</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>60</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1822948502.495173</v>
       </c>
     </row>
     <row r="86">
@@ -3346,28 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2772427478.652718</v>
+        <v>1757048579.54907</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1207075122679755</v>
+        <v>0.1388528090075168</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01993673103109109</v>
+        <v>0.02377359412136414</v>
       </c>
       <c r="H86" t="b">
-        <v>1</v>
-      </c>
-      <c r="I86" t="n">
-        <v>19</v>
-      </c>
-      <c r="J86" t="n">
-        <v>1386213874.347065</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
@@ -3380,28 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>922253280.2811202</v>
+        <v>987613744.161332</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1239316996324879</v>
+        <v>0.119605041346299</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03135906889475222</v>
+        <v>0.02944368030950885</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>461126624.5075587</v>
       </c>
     </row>
     <row r="88">
@@ -3414,28 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2775973324.178357</v>
+        <v>2353262874.055228</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1248029840358539</v>
+        <v>0.1732948737643648</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02836437069577136</v>
+        <v>0.02528430914298554</v>
       </c>
       <c r="H88" t="b">
-        <v>1</v>
-      </c>
-      <c r="I88" t="n">
-        <v>63</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1387986670.369107</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -3454,22 +2922,16 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2531812799.430172</v>
+        <v>3420336705.678956</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1334430548491798</v>
+        <v>0.1359291019960422</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03326154365620156</v>
+        <v>0.03151314764093983</v>
       </c>
       <c r="H89" t="b">
-        <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>54</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1265906472.105548</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90">
@@ -3482,28 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1945005796.959618</v>
+        <v>2160819174.582056</v>
       </c>
       <c r="F90" t="n">
-        <v>0.08461603772057939</v>
+        <v>0.1064012088896058</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05554740214987132</v>
+        <v>0.03601746499701271</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>972502958.6092682</v>
       </c>
     </row>
     <row r="91">
@@ -3522,22 +2978,16 @@
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1425001893.985854</v>
+        <v>1683968701.756497</v>
       </c>
       <c r="F91" t="n">
-        <v>0.159753199751155</v>
+        <v>0.1573232940308819</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05450139152565146</v>
+        <v>0.05755734238988391</v>
       </c>
       <c r="H91" t="b">
-        <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>712500995.8634034</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92">
@@ -3550,28 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2650460891.212326</v>
+        <v>1907749795.651502</v>
       </c>
       <c r="F92" t="n">
-        <v>0.1061953145895709</v>
+        <v>0.07903799576679382</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04239862990475586</v>
+        <v>0.04625317024564429</v>
       </c>
       <c r="H92" t="b">
-        <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>39</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1325230440.89597</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93">
@@ -3584,28 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4132274123.046071</v>
+        <v>3255138174.675457</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1326749902026048</v>
+        <v>0.1023359822502199</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04621145691745488</v>
+        <v>0.05209260310913619</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>49</v>
-      </c>
-      <c r="J93" t="n">
-        <v>2066137053.571041</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3618,28 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2315226412.819652</v>
+        <v>1910692416.328191</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1232650762269903</v>
+        <v>0.1383023026696992</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02617659171579489</v>
+        <v>0.03229371291412268</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="n">
-        <v>1157613245.728695</v>
       </c>
     </row>
     <row r="95">
@@ -3652,28 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2747646334.977935</v>
+        <v>3125665805.932642</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1234061603792209</v>
+        <v>0.119955622978134</v>
       </c>
       <c r="G95" t="n">
-        <v>0.05231376103456513</v>
+        <v>0.05262839368705625</v>
       </c>
       <c r="H95" t="b">
-        <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>38</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1373823185.559909</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96">
@@ -3692,22 +3118,16 @@
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2379867266.8749</v>
+        <v>1933712126.148357</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1406085383497784</v>
+        <v>0.09414715688040524</v>
       </c>
       <c r="G96" t="n">
-        <v>0.02887861782251905</v>
+        <v>0.03116343374937411</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>1189933579.827477</v>
       </c>
     </row>
     <row r="97">
@@ -3720,28 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3684211906.215118</v>
+        <v>3298935304.852741</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1285696142121149</v>
+        <v>0.1395188579196896</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02610056555997788</v>
+        <v>0.01985231891400339</v>
       </c>
       <c r="H97" t="b">
         <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>52</v>
-      </c>
-      <c r="J97" t="n">
-        <v>1842105984.060056</v>
       </c>
     </row>
     <row r="98">
@@ -3754,28 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3109673280.355353</v>
+        <v>3925973009.59189</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1115499808119654</v>
+        <v>0.1296907333530359</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02044946195669983</v>
+        <v>0.02370470255483531</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>42</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1554836632.266302</v>
       </c>
     </row>
     <row r="99">
@@ -3788,28 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3259150514.001863</v>
+        <v>3167315037.551328</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1164581713829887</v>
+        <v>0.1070544049231032</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02433216178882218</v>
+        <v>0.0351618389954723</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>50</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1629575261.742203</v>
       </c>
     </row>
     <row r="100">
@@ -3822,28 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3113183727.074954</v>
+        <v>3315895940.799393</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1485854049850873</v>
+        <v>0.1506899675154895</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02717463607746524</v>
+        <v>0.02733085784372345</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>49</v>
-      </c>
-      <c r="J100" t="n">
-        <v>1556591863.388</v>
       </c>
     </row>
     <row r="101">
@@ -3856,28 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3177533923.069734</v>
+        <v>2351991277.153542</v>
       </c>
       <c r="F101" t="n">
-        <v>0.171123216968107</v>
+        <v>0.138940959588706</v>
       </c>
       <c r="G101" t="n">
-        <v>0.03599310901433067</v>
+        <v>0.05451627537399691</v>
       </c>
       <c r="H101" t="b">
-        <v>1</v>
-      </c>
-      <c r="I101" t="n">
-        <v>65</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1588767073.993238</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_159.xlsx
+++ b/output/fit_clients/fit_round_159.xlsx
@@ -480,22 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1777506447.083754</v>
+        <v>2255862635.845945</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1148383490780614</v>
+        <v>0.0997828529192962</v>
       </c>
       <c r="G2" t="n">
-        <v>0.02893761854944611</v>
+        <v>0.03785094856132116</v>
       </c>
       <c r="H2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -514,13 +514,13 @@
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1908819881.706449</v>
+        <v>2445928472.710066</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1723081060571809</v>
+        <v>0.1221052686075739</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0306140354486727</v>
+        <v>0.03278585700699378</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -542,13 +542,13 @@
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4242235535.936549</v>
+        <v>4451722469.29387</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1396752454308414</v>
+        <v>0.1139527921835076</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02756879115326747</v>
+        <v>0.02314316895834851</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -564,19 +564,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2569603481.990711</v>
+        <v>4161189030.24861</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08482679624230252</v>
+        <v>0.1035810207312103</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04919720675159156</v>
+        <v>0.03131922146764105</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -592,19 +592,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2328697077.965985</v>
+        <v>2112436645.347631</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1188897489565825</v>
+        <v>0.1107094791463201</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05328885681545759</v>
+        <v>0.03875793080380629</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -620,19 +620,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2150287829.310056</v>
+        <v>2354566198.726574</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1008796222739057</v>
+        <v>0.06879404565871343</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04054737990361412</v>
+        <v>0.04218845221497926</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -648,19 +648,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3252839433.521915</v>
+        <v>3250271566.329807</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1511276967978359</v>
+        <v>0.1668367697852484</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02221838392001912</v>
+        <v>0.02567605470704705</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -676,19 +676,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1620544793.555739</v>
+        <v>1393007028.834587</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1579037070179999</v>
+        <v>0.1489628977978846</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02536833292613973</v>
+        <v>0.03483607269345333</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -704,19 +704,19 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5162619334.039581</v>
+        <v>4287164966.631202</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1397654862804924</v>
+        <v>0.1982242135875195</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03287827255593454</v>
+        <v>0.05406971289078648</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
@@ -732,19 +732,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3960216329.307297</v>
+        <v>2642426541.609796</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1325764073019918</v>
+        <v>0.1474661417669123</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03486573251962501</v>
+        <v>0.03474446110413353</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -760,19 +760,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2540094243.159341</v>
+        <v>2490991310.194692</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1203350234617936</v>
+        <v>0.184852921279188</v>
       </c>
       <c r="G12" t="n">
-        <v>0.05031348482475788</v>
+        <v>0.03263089646573676</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -788,22 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3893612215.669621</v>
+        <v>5093511112.020638</v>
       </c>
       <c r="F13" t="n">
-        <v>0.08335491343611488</v>
+        <v>0.08777667759844412</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02012331916525244</v>
+        <v>0.02532892660319716</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2973076497.420238</v>
+        <v>3393905078.377368</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1558508689064623</v>
+        <v>0.1549478727329127</v>
       </c>
       <c r="G14" t="n">
-        <v>0.02760613339416205</v>
+        <v>0.02993996143512201</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -844,22 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1529903424.847865</v>
+        <v>1398664497.81001</v>
       </c>
       <c r="F15" t="n">
-        <v>0.08228014687616468</v>
+        <v>0.09855333567067472</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04883604509680307</v>
+        <v>0.03320722899464405</v>
       </c>
       <c r="H15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -872,19 +872,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>1816767193.540728</v>
+        <v>2672388982.72515</v>
       </c>
       <c r="F16" t="n">
-        <v>0.08608841021706566</v>
+        <v>0.09301739023407891</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04373299949324129</v>
+        <v>0.04098128837848725</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -900,19 +900,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4136732628.365521</v>
+        <v>4314941809.475615</v>
       </c>
       <c r="F17" t="n">
-        <v>0.170524752526277</v>
+        <v>0.1357507468531546</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03633191411910092</v>
+        <v>0.03403076687771648</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -928,19 +928,19 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3905423147.439743</v>
+        <v>2584899516.695913</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1154780961630223</v>
+        <v>0.1227157699911239</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02241677212002913</v>
+        <v>0.02990974758241093</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -956,19 +956,19 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1017507360.121683</v>
+        <v>835571278.7340792</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1469064566166205</v>
+        <v>0.1810177404170893</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01819834922886449</v>
+        <v>0.01939307816293902</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -990,13 +990,13 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2143467051.937952</v>
+        <v>2154249251.582124</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1431609740052124</v>
+        <v>0.137614119453149</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02129883563432129</v>
+        <v>0.02408844274818552</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2210769137.877545</v>
+        <v>1747171892.792278</v>
       </c>
       <c r="F21" t="n">
-        <v>0.07293652908503309</v>
+        <v>0.0789956475636172</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03743915283006294</v>
+        <v>0.03952425228588861</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1040,19 +1040,19 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2758303899.369256</v>
+        <v>3389431971.825812</v>
       </c>
       <c r="F22" t="n">
-        <v>0.09350885717172207</v>
+        <v>0.1061556221893765</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05660546554549016</v>
+        <v>0.04798062905820587</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1068,19 +1068,19 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1363676299.456916</v>
+        <v>1039391820.061403</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1605837507878878</v>
+        <v>0.1715819633130218</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04015411904541354</v>
+        <v>0.046016218276174</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1102,16 +1102,16 @@
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3342686953.821604</v>
+        <v>2551949286.806186</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1462081240116652</v>
+        <v>0.1108983146632835</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03705544004518539</v>
+        <v>0.02636255301494192</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1124,19 +1124,19 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1424111120.080615</v>
+        <v>1460091386.933487</v>
       </c>
       <c r="F25" t="n">
-        <v>0.09987150535615884</v>
+        <v>0.08510846697738858</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02844635183038485</v>
+        <v>0.02842648572463554</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1152,22 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1052136247.918387</v>
+        <v>1224852765.924667</v>
       </c>
       <c r="F26" t="n">
-        <v>0.0934528187700171</v>
+        <v>0.1228515446601229</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02663142603861752</v>
+        <v>0.02857924626252595</v>
       </c>
       <c r="H26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1186,16 +1186,16 @@
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3864329933.295709</v>
+        <v>3943432484.85356</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1363275694367468</v>
+        <v>0.1237708013848717</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01663536219325137</v>
+        <v>0.0233966123265496</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1208,19 +1208,19 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3248124395.620243</v>
+        <v>3234154906.616825</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1303106285530873</v>
+        <v>0.1441621810412227</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03603468856370742</v>
+        <v>0.03986378159616587</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1236,22 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5025468865.29603</v>
+        <v>5747768347.045408</v>
       </c>
       <c r="F29" t="n">
-        <v>0.09123305824894914</v>
+        <v>0.1094942630209178</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03439773525148661</v>
+        <v>0.03631017744453422</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1270,13 +1270,13 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2331184360.461255</v>
+        <v>1601023511.608379</v>
       </c>
       <c r="F30" t="n">
-        <v>0.08435913638496897</v>
+        <v>0.1148446909237077</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03441581465140618</v>
+        <v>0.03138825827951412</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1292,22 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1074335588.722743</v>
+        <v>1385743658.423581</v>
       </c>
       <c r="F31" t="n">
-        <v>0.09575715409343927</v>
+        <v>0.08216631975416382</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03505800090822929</v>
+        <v>0.04411543827057712</v>
       </c>
       <c r="H31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -1320,19 +1320,19 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1457698185.255802</v>
+        <v>1804074955.291037</v>
       </c>
       <c r="F32" t="n">
-        <v>0.0837754197360224</v>
+        <v>0.103154678464525</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03706771108865027</v>
+        <v>0.03408507145813423</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1348,19 +1348,19 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2007341620.143068</v>
+        <v>2910881765.850737</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1620604074588206</v>
+        <v>0.1360850990501631</v>
       </c>
       <c r="G33" t="n">
-        <v>0.0457852633506686</v>
+        <v>0.05132654980053768</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -1376,19 +1376,19 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1334822780.406736</v>
+        <v>1548085346.055938</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1136159047948175</v>
+        <v>0.07793156337389663</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01935652216593233</v>
+        <v>0.02612722353096541</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1404,19 +1404,19 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1160404548.698412</v>
+        <v>1134928017.392153</v>
       </c>
       <c r="F35" t="n">
-        <v>0.08505040286204686</v>
+        <v>0.1024956931943854</v>
       </c>
       <c r="G35" t="n">
-        <v>0.02898999249167893</v>
+        <v>0.03389543680219286</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2696565125.386776</v>
+        <v>2168681719.577384</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1239925973564769</v>
+        <v>0.1101310249752514</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02198289791269399</v>
+        <v>0.02001200341231705</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1460,19 +1460,19 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2497359601.036225</v>
+        <v>2435571985.062447</v>
       </c>
       <c r="F37" t="n">
-        <v>0.09395232499375099</v>
+        <v>0.09842019924357878</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03316846008014202</v>
+        <v>0.03282707245308477</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1494,13 +1494,13 @@
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1999064763.628517</v>
+        <v>1718700588.143996</v>
       </c>
       <c r="F38" t="n">
-        <v>0.09067550351644581</v>
+        <v>0.1027260834665421</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03207514593228241</v>
+        <v>0.03862277041287498</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1516,19 +1516,19 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1840514320.306719</v>
+        <v>2173234356.618811</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1205214736732366</v>
+        <v>0.1696072792139736</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02573627801518681</v>
+        <v>0.02034329945955321</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1544,19 +1544,19 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1623863910.849121</v>
+        <v>1531713302.232341</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1487458476597094</v>
+        <v>0.1000312372258929</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05960854219177648</v>
+        <v>0.05245892585961964</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -1578,13 +1578,13 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2820732770.769591</v>
+        <v>2931844098.719969</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1502504831843596</v>
+        <v>0.1620006622550157</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03149581340072025</v>
+        <v>0.04610396844627363</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1600,19 +1600,19 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3691211229.033825</v>
+        <v>3180511781.29297</v>
       </c>
       <c r="F42" t="n">
-        <v>0.09965772464757071</v>
+        <v>0.1141391831982028</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03109302035150698</v>
+        <v>0.0387826885761342</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -1628,19 +1628,19 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2417116102.956589</v>
+        <v>2212554413.967819</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1642902534042364</v>
+        <v>0.1327124800397784</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02553417651854796</v>
+        <v>0.021963239910065</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1662,13 +1662,13 @@
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2013913793.252002</v>
+        <v>1727948100.065208</v>
       </c>
       <c r="F44" t="n">
-        <v>0.07985796722676723</v>
+        <v>0.09658333852473698</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02565325113618793</v>
+        <v>0.03091973578811713</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1690,16 +1690,16 @@
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1964516577.758229</v>
+        <v>1876588237.279868</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1178982984307441</v>
+        <v>0.1501012871462273</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05201937693383085</v>
+        <v>0.05567102890108219</v>
       </c>
       <c r="H45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -1718,16 +1718,16 @@
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4270137983.43304</v>
+        <v>3773503446.314254</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1309678311187991</v>
+        <v>0.1283026429945897</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04454333786993983</v>
+        <v>0.0407294790238175</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1746,16 +1746,16 @@
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4792426898.797031</v>
+        <v>3853951061.763852</v>
       </c>
       <c r="F47" t="n">
-        <v>0.2009700134279443</v>
+        <v>0.1557881784364932</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04422427821980253</v>
+        <v>0.05006640877336112</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1768,19 +1768,19 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3471204586.245773</v>
+        <v>3489925458.656465</v>
       </c>
       <c r="F48" t="n">
-        <v>0.09789736546845691</v>
+        <v>0.08490688359608277</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02700837477967138</v>
+        <v>0.03142865301635514</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1796,19 +1796,19 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1921005209.480013</v>
+        <v>1771608301.225021</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1541459183421901</v>
+        <v>0.1375620841015948</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03024922895816526</v>
+        <v>0.04110317235285795</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -1830,16 +1830,16 @@
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3365900833.957047</v>
+        <v>2668253127.468542</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1436445509226186</v>
+        <v>0.1187909150091465</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04793696565767509</v>
+        <v>0.05290891733372207</v>
       </c>
       <c r="H50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -1852,19 +1852,19 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>968018374.3322916</v>
+        <v>984163632.3648967</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1319068623679254</v>
+        <v>0.1392905293765093</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04083570691548666</v>
+        <v>0.03964695310194223</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -1886,13 +1886,13 @@
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>5235152876.169085</v>
+        <v>3443502862.155868</v>
       </c>
       <c r="F52" t="n">
-        <v>0.08373960466706769</v>
+        <v>0.09796551468537223</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04283218570188907</v>
+        <v>0.05512817491491023</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1908,22 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2348436188.631967</v>
+        <v>2640221288.839822</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1793213660566274</v>
+        <v>0.1387561806428766</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02581474683071287</v>
+        <v>0.03449930345664286</v>
       </c>
       <c r="H53" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -1942,16 +1942,16 @@
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4501052087.409256</v>
+        <v>4911425146.72014</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1690003835366454</v>
+        <v>0.1560670838314987</v>
       </c>
       <c r="G54" t="n">
-        <v>0.05059244321028589</v>
+        <v>0.04155451987832976</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4941977230.621868</v>
+        <v>4655889443.950687</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1954396863618398</v>
+        <v>0.1525838858580636</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02409046445390274</v>
+        <v>0.02444191075324355</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1998,16 +1998,16 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1573977380.620027</v>
+        <v>1186798417.166366</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1300008515794344</v>
+        <v>0.1332336281649738</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04168837773455881</v>
+        <v>0.05448518234424891</v>
       </c>
       <c r="H56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
@@ -2020,19 +2020,19 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3353354750.3055</v>
+        <v>3295797483.381884</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1599024518125733</v>
+        <v>0.1274642786178331</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02361330093874638</v>
+        <v>0.02157678792277235</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2048,19 +2048,19 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1443197957.12811</v>
+        <v>1255799051.802289</v>
       </c>
       <c r="F58" t="n">
-        <v>0.20139907087691</v>
+        <v>0.2029259124706484</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02829129834453846</v>
+        <v>0.03029902632583273</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2076,19 +2076,19 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3522236623.254616</v>
+        <v>3492538382.798798</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1195042974688353</v>
+        <v>0.1118651619780854</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04395315452374705</v>
+        <v>0.04885995766717569</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2110,16 +2110,16 @@
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2288110098.243053</v>
+        <v>2822307236.895157</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1284774019356527</v>
+        <v>0.1721994886429926</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02224979883443386</v>
+        <v>0.03040481025233867</v>
       </c>
       <c r="H60" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -2132,19 +2132,19 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2966778930.92422</v>
+        <v>3406773354.532763</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1176859106747748</v>
+        <v>0.1365590330556669</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02960208464842403</v>
+        <v>0.03251343748431763</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2160,19 +2160,19 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1692079937.519597</v>
+        <v>1573642282.839724</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1677509048832961</v>
+        <v>0.1932005784110425</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04135086117758868</v>
+        <v>0.03696060801425947</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2188,22 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4108742842.916196</v>
+        <v>4089913892.901138</v>
       </c>
       <c r="F63" t="n">
-        <v>0.09319612050515008</v>
+        <v>0.07266593158155692</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04330345294452094</v>
+        <v>0.03626544457821829</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2222,16 +2222,16 @@
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5046865036.930157</v>
+        <v>4090022764.599165</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1371156641383677</v>
+        <v>0.1909263229450446</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03103043062030921</v>
+        <v>0.02151182981568394</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4758120199.477274</v>
+        <v>4853322521.650364</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1223542430640951</v>
+        <v>0.1648819082669494</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02355137633027441</v>
+        <v>0.02352397511277897</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2272,19 +2272,19 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4520326526.839246</v>
+        <v>4810987408.502968</v>
       </c>
       <c r="F66" t="n">
-        <v>0.09927476362133686</v>
+        <v>0.1501099379227977</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03407329774500768</v>
+        <v>0.03314107922145273</v>
       </c>
       <c r="H66" t="b">
         <v>1</v>
@@ -2300,19 +2300,19 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3358891813.012068</v>
+        <v>3046400575.906096</v>
       </c>
       <c r="F67" t="n">
-        <v>0.0863248648478025</v>
+        <v>0.07891570992748222</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04514501124525416</v>
+        <v>0.04507176081813714</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2334,16 +2334,16 @@
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>6018127420.958855</v>
+        <v>6006829648.860924</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1393178444988608</v>
+        <v>0.1104084911049674</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04004598568648809</v>
+        <v>0.03692787125438201</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2356,19 +2356,19 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2342174723.564477</v>
+        <v>1613620543.612189</v>
       </c>
       <c r="F69" t="n">
-        <v>0.11193558644598</v>
+        <v>0.115551410702243</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05973941774247078</v>
+        <v>0.04556401005620879</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -2384,22 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3163705603.941165</v>
+        <v>2994016240.989493</v>
       </c>
       <c r="F70" t="n">
-        <v>0.09007401602937248</v>
+        <v>0.07816146622743936</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04628203855370395</v>
+        <v>0.03055284634793769</v>
       </c>
       <c r="H70" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -2412,22 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5447447634.130954</v>
+        <v>4341580661.550953</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1595096048309089</v>
+        <v>0.1188947464422738</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03199558871432592</v>
+        <v>0.03322803566960601</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2446,13 +2446,13 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1760232596.002511</v>
+        <v>1710926235.52999</v>
       </c>
       <c r="F72" t="n">
-        <v>0.1069696667454235</v>
+        <v>0.07264600193092823</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03283743575423596</v>
+        <v>0.03788733607235636</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2468,19 +2468,19 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2866108007.947947</v>
+        <v>2346399771.996933</v>
       </c>
       <c r="F73" t="n">
-        <v>0.09588131940023466</v>
+        <v>0.0857556745760621</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04305564361405258</v>
+        <v>0.04409786561087039</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2496,22 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3377952964.856761</v>
+        <v>3400986998.323945</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1147726548993743</v>
+        <v>0.1528900595594782</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02325143059869396</v>
+        <v>0.02614962249095992</v>
       </c>
       <c r="H74" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -2524,19 +2524,19 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1880719220.603547</v>
+        <v>2176792177.174377</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1206207122713009</v>
+        <v>0.149989387637027</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02503718108642779</v>
+        <v>0.0356143669306803</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2558,16 +2558,16 @@
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4488166937.951789</v>
+        <v>4494744934.840904</v>
       </c>
       <c r="F76" t="n">
-        <v>0.09946989662119439</v>
+        <v>0.1097395452483977</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02687830470384446</v>
+        <v>0.03255140835887638</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2580,19 +2580,19 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2091835930.37042</v>
+        <v>2189486135.049282</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1462805025145323</v>
+        <v>0.1423967256939358</v>
       </c>
       <c r="G77" t="n">
-        <v>0.0306782414890699</v>
+        <v>0.0317894584674745</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -2608,22 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4654517616.428081</v>
+        <v>4643409464.47854</v>
       </c>
       <c r="F78" t="n">
-        <v>0.09992768910958993</v>
+        <v>0.101984114248485</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04834345873959312</v>
+        <v>0.04604674687743796</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2636,19 +2636,19 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1447776738.710266</v>
+        <v>1809383414.937339</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1638135389436098</v>
+        <v>0.1148360627820378</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02877800283326465</v>
+        <v>0.02967525246102366</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -2664,19 +2664,19 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4274754489.307354</v>
+        <v>4470063819.487337</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1029350316303986</v>
+        <v>0.0901302982522368</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03230971924880094</v>
+        <v>0.03223661393778068</v>
       </c>
       <c r="H80" t="b">
         <v>1</v>
@@ -2692,19 +2692,19 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3816302761.577362</v>
+        <v>4019173184.41995</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1313139654743661</v>
+        <v>0.1184020484139189</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02377758883730248</v>
+        <v>0.02747110331814835</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2726,16 +2726,16 @@
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4604215440.000442</v>
+        <v>5114884958.087447</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1924128246740727</v>
+        <v>0.1816767921211111</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01960095552878517</v>
+        <v>0.01843334371661899</v>
       </c>
       <c r="H82" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -2754,13 +2754,13 @@
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1718187289.244222</v>
+        <v>2299083439.894683</v>
       </c>
       <c r="F83" t="n">
-        <v>0.09849259624984039</v>
+        <v>0.09989218884607039</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04067021462171838</v>
+        <v>0.04078235541550428</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2782,13 +2782,13 @@
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1722713422.512044</v>
+        <v>2295489423.429325</v>
       </c>
       <c r="F84" t="n">
-        <v>0.07626346970286405</v>
+        <v>0.1027994682385166</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04016481311903238</v>
+        <v>0.03253470529775412</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2804,19 +2804,19 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3278138677.348807</v>
+        <v>2260990599.234982</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1606155988091749</v>
+        <v>0.1465275512010937</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03539690226875174</v>
+        <v>0.0360336385496175</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -2832,19 +2832,19 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1757048579.54907</v>
+        <v>2770018591.123805</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1388528090075168</v>
+        <v>0.1094092483278173</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02377359412136414</v>
+        <v>0.02072342916154876</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -2860,19 +2860,19 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>987613744.161332</v>
+        <v>1328657107.343771</v>
       </c>
       <c r="F87" t="n">
-        <v>0.119605041346299</v>
+        <v>0.1561141729434597</v>
       </c>
       <c r="G87" t="n">
-        <v>0.02944368030950885</v>
+        <v>0.03357581618199453</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2888,19 +2888,19 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2353262874.055228</v>
+        <v>3293531066.775106</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1732948737643648</v>
+        <v>0.1415837467157354</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02528430914298554</v>
+        <v>0.03636304716127544</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2916,22 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3420336705.678956</v>
+        <v>3265907332.467792</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1359291019960422</v>
+        <v>0.1596374571383262</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03151314764093983</v>
+        <v>0.02764997742821611</v>
       </c>
       <c r="H89" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -2944,19 +2944,19 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>2160819174.582056</v>
+        <v>1337609733.190968</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1064012088896058</v>
+        <v>0.1096831825566406</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03601746499701271</v>
+        <v>0.04433018990325952</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2972,22 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1683968701.756497</v>
+        <v>1436972335.008705</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1573232940308819</v>
+        <v>0.1695681540368978</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05755734238988391</v>
+        <v>0.04270766590073766</v>
       </c>
       <c r="H91" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92">
@@ -3000,22 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>1907749795.651502</v>
+        <v>2014487114.582821</v>
       </c>
       <c r="F92" t="n">
-        <v>0.07903799576679382</v>
+        <v>0.1068881069883273</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04625317024564429</v>
+        <v>0.03222738485705511</v>
       </c>
       <c r="H92" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -3028,19 +3028,19 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3255138174.675457</v>
+        <v>4326069596.035794</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1023359822502199</v>
+        <v>0.1225310788458534</v>
       </c>
       <c r="G93" t="n">
-        <v>0.05209260310913619</v>
+        <v>0.04061065964256838</v>
       </c>
       <c r="H93" t="b">
         <v>1</v>
@@ -3056,19 +3056,19 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1910692416.328191</v>
+        <v>1549768408.608547</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1383023026696992</v>
+        <v>0.1307030138565975</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03229371291412268</v>
+        <v>0.02809842219728119</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3084,22 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>3125665805.932642</v>
+        <v>2333484207.362702</v>
       </c>
       <c r="F95" t="n">
-        <v>0.119955622978134</v>
+        <v>0.1296412060301768</v>
       </c>
       <c r="G95" t="n">
-        <v>0.05262839368705625</v>
+        <v>0.04762426700055201</v>
       </c>
       <c r="H95" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
@@ -3112,19 +3112,19 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1933712126.148357</v>
+        <v>2283114948.735578</v>
       </c>
       <c r="F96" t="n">
-        <v>0.09414715688040524</v>
+        <v>0.1173537994375767</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03116343374937411</v>
+        <v>0.039016875413924</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3140,22 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3298935304.852741</v>
+        <v>5020134228.45152</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1395188579196896</v>
+        <v>0.1179367411293364</v>
       </c>
       <c r="G97" t="n">
-        <v>0.01985231891400339</v>
+        <v>0.02662145579572619</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3168,19 +3168,19 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3925973009.59189</v>
+        <v>3613830675.616025</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1296907333530359</v>
+        <v>0.1293356363988984</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02370470255483531</v>
+        <v>0.02593906397990393</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3196,19 +3196,19 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3167315037.551328</v>
+        <v>2166114937.940753</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1070544049231032</v>
+        <v>0.1254436432170154</v>
       </c>
       <c r="G99" t="n">
-        <v>0.0351618389954723</v>
+        <v>0.02514973561764322</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3224,19 +3224,19 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3315895940.799393</v>
+        <v>4138791206.756925</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1506899675154895</v>
+        <v>0.1206537473201547</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02733085784372345</v>
+        <v>0.02006385885685501</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3252,19 +3252,19 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2351991277.153542</v>
+        <v>2276208805.561275</v>
       </c>
       <c r="F101" t="n">
-        <v>0.138940959588706</v>
+        <v>0.2062020817775661</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05451627537399691</v>
+        <v>0.03753926585353678</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_159.xlsx
+++ b/output/fit_clients/fit_round_159.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -480,23 +495,30 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2255862635.845945</v>
+        <v>1908468318.750929</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0997828529192962</v>
+        <v>0.07091262702746619</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03785094856132116</v>
+        <v>0.04153171472415437</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,23 +530,30 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2445928472.710066</v>
+        <v>2519586466.951191</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1221052686075739</v>
+        <v>0.1839116085044262</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03278585700699378</v>
+        <v>0.04144078697534054</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -542,17 +571,24 @@
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4451722469.29387</v>
+        <v>4979317218.423053</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1139527921835076</v>
+        <v>0.1030613560530005</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02314316895834851</v>
+        <v>0.0293573684031686</v>
       </c>
       <c r="H4" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>89</v>
+      </c>
+      <c r="J4" t="n">
+        <v>159</v>
+      </c>
+      <c r="K4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -564,22 +600,31 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>4161189030.24861</v>
+        <v>3283857574.163662</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1035810207312103</v>
+        <v>0.1049915324175935</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03131922146764105</v>
+        <v>0.03879102483351404</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>66</v>
+      </c>
+      <c r="J5" t="n">
+        <v>158</v>
+      </c>
+      <c r="K5" t="n">
+        <v>118.53254727905</v>
       </c>
     </row>
     <row r="6">
@@ -592,23 +637,30 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2112436645.347631</v>
+        <v>2225826291.655702</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1107094791463201</v>
+        <v>0.1264769590426721</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03875793080380629</v>
+        <v>0.05669253596894491</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -620,23 +672,30 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2354566198.726574</v>
+        <v>1997799209.110952</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06879404565871343</v>
+        <v>0.09348902258126399</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04218845221497926</v>
+        <v>0.03447129462651552</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -648,23 +707,30 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3250271566.329807</v>
+        <v>3566094455.416044</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1668367697852484</v>
+        <v>0.17299828955062</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02567605470704705</v>
+        <v>0.03354717769523598</v>
       </c>
       <c r="H8" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>45</v>
+      </c>
+      <c r="J8" t="n">
+        <v>159</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -676,23 +742,30 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1393007028.834587</v>
+        <v>1651936021.170686</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1489628977978846</v>
+        <v>0.1974468580158716</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03483607269345333</v>
+        <v>0.03100805594199245</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -704,22 +777,31 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4287164966.631202</v>
+        <v>4186473844.770517</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1982242135875195</v>
+        <v>0.1530439050811781</v>
       </c>
       <c r="G10" t="n">
-        <v>0.05406971289078648</v>
+        <v>0.04106961984208417</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>146</v>
+      </c>
+      <c r="J10" t="n">
+        <v>159</v>
+      </c>
+      <c r="K10" t="n">
+        <v>147.7745884989402</v>
       </c>
     </row>
     <row r="11">
@@ -732,23 +814,30 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>2642426541.609796</v>
+        <v>3224140657.415451</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1474661417669123</v>
+        <v>0.175657758330323</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03474446110413353</v>
+        <v>0.03468349842013367</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
       </c>
+      <c r="I11" t="n">
+        <v>66</v>
+      </c>
+      <c r="J11" t="n">
+        <v>154</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -760,23 +849,30 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2490991310.194692</v>
+        <v>2844864364.051937</v>
       </c>
       <c r="F12" t="n">
-        <v>0.184852921279188</v>
+        <v>0.1530997370821581</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03263089646573676</v>
+        <v>0.03661398324783443</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" t="n">
+        <v>144</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -788,23 +884,30 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>5093511112.020638</v>
+        <v>5226035144.653329</v>
       </c>
       <c r="F13" t="n">
-        <v>0.08777667759844412</v>
+        <v>0.07801540975673979</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02532892660319716</v>
+        <v>0.02080019460923914</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
       </c>
+      <c r="I13" t="n">
+        <v>77</v>
+      </c>
+      <c r="J13" t="n">
+        <v>159</v>
+      </c>
+      <c r="K13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -816,23 +919,30 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3393905078.377368</v>
+        <v>3116883109.816404</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1549478727329127</v>
+        <v>0.186277446921205</v>
       </c>
       <c r="G14" t="n">
-        <v>0.02993996143512201</v>
+        <v>0.03091363072514164</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
       </c>
+      <c r="I14" t="n">
+        <v>28</v>
+      </c>
+      <c r="J14" t="n">
+        <v>151</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -850,17 +960,24 @@
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1398664497.81001</v>
+        <v>1469955530.523814</v>
       </c>
       <c r="F15" t="n">
-        <v>0.09855333567067472</v>
+        <v>0.07445009299279769</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03320722899464405</v>
+        <v>0.03535341532932342</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -872,23 +989,30 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2672388982.72515</v>
+        <v>2406513359.998503</v>
       </c>
       <c r="F16" t="n">
-        <v>0.09301739023407891</v>
+        <v>0.07781383817305039</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04098128837848725</v>
+        <v>0.04698226412129006</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -900,22 +1024,31 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4314941809.475615</v>
+        <v>4273329310.032831</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1357507468531546</v>
+        <v>0.1281687477765331</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03403076687771648</v>
+        <v>0.03823973014288628</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>77</v>
+      </c>
+      <c r="J17" t="n">
+        <v>158</v>
+      </c>
+      <c r="K17" t="n">
+        <v>122.1091278720083</v>
       </c>
     </row>
     <row r="18">
@@ -934,17 +1067,24 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2584899516.695913</v>
+        <v>3390817506.527503</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1227157699911239</v>
+        <v>0.1780286618063764</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02990974758241093</v>
+        <v>0.0259271531021095</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
       </c>
+      <c r="I18" t="n">
+        <v>40</v>
+      </c>
+      <c r="J18" t="n">
+        <v>157</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -956,23 +1096,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>835571278.7340792</v>
+        <v>1280647983.716922</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1810177404170893</v>
+        <v>0.1382367195879011</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01939307816293902</v>
+        <v>0.01899438837002426</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -984,23 +1131,30 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2154249251.582124</v>
+        <v>1829857763.641679</v>
       </c>
       <c r="F20" t="n">
-        <v>0.137614119453149</v>
+        <v>0.09858279564668695</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02408844274818552</v>
+        <v>0.03077478792841808</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1018,17 +1172,24 @@
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1747171892.792278</v>
+        <v>1910851537.816208</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0789956475636172</v>
+        <v>0.0786577176516495</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03952425228588861</v>
+        <v>0.03494229809601514</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1040,23 +1201,30 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3389431971.825812</v>
+        <v>3790254566.366928</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1061556221893765</v>
+        <v>0.0879255534156767</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04798062905820587</v>
+        <v>0.04057315581738708</v>
       </c>
       <c r="H22" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>40</v>
+      </c>
+      <c r="J22" t="n">
+        <v>159</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1074,17 +1242,24 @@
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1039391820.061403</v>
+        <v>1033174610.105667</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1715819633130218</v>
+        <v>0.1771402240937927</v>
       </c>
       <c r="G23" t="n">
-        <v>0.046016218276174</v>
+        <v>0.04034008534291719</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1096,23 +1271,30 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2551949286.806186</v>
+        <v>3563458740.015877</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1108983146632835</v>
+        <v>0.1246041382272279</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02636255301494192</v>
+        <v>0.02586813821683887</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
       </c>
+      <c r="I24" t="n">
+        <v>47</v>
+      </c>
+      <c r="J24" t="n">
+        <v>159</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1124,23 +1306,30 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1460091386.933487</v>
+        <v>1280723757.773923</v>
       </c>
       <c r="F25" t="n">
-        <v>0.08510846697738858</v>
+        <v>0.07800510886784755</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02842648572463554</v>
+        <v>0.02034998273929964</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1152,23 +1341,30 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1224852765.924667</v>
+        <v>1372591643.320487</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1228515446601229</v>
+        <v>0.1168471465313683</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02857924626252595</v>
+        <v>0.02890212082630711</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,23 +1376,30 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3943432484.85356</v>
+        <v>3922170173.916016</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1237708013848717</v>
+        <v>0.1518289929181504</v>
       </c>
       <c r="G27" t="n">
-        <v>0.0233966123265496</v>
+        <v>0.02046927052737202</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
       </c>
+      <c r="I27" t="n">
+        <v>62</v>
+      </c>
+      <c r="J27" t="n">
+        <v>159</v>
+      </c>
+      <c r="K27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1214,17 +1417,24 @@
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3234154906.616825</v>
+        <v>2539289930.333179</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1441621810412227</v>
+        <v>0.150296659124321</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03986378159616587</v>
+        <v>0.03770535507079991</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
       </c>
+      <c r="I28" t="n">
+        <v>31</v>
+      </c>
+      <c r="J28" t="n">
+        <v>156</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1236,22 +1446,31 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5747768347.045408</v>
+        <v>5669397714.485015</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1094942630209178</v>
+        <v>0.09892212653240041</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03631017744453422</v>
+        <v>0.03844107495796276</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>148</v>
+      </c>
+      <c r="J29" t="n">
+        <v>159</v>
+      </c>
+      <c r="K29" t="n">
+        <v>156.7454636430722</v>
       </c>
     </row>
     <row r="30">
@@ -1264,23 +1483,30 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1601023511.608379</v>
+        <v>2201552580.102715</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1148446909237077</v>
+        <v>0.09317155459825653</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03138825827951412</v>
+        <v>0.03157524935367856</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1292,23 +1518,30 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1385743658.423581</v>
+        <v>1137642788.50213</v>
       </c>
       <c r="F31" t="n">
-        <v>0.08216631975416382</v>
+        <v>0.08715308591800421</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04411543827057712</v>
+        <v>0.04269362709010028</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1320,23 +1553,30 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1804074955.291037</v>
+        <v>1586384224.210119</v>
       </c>
       <c r="F32" t="n">
-        <v>0.103154678464525</v>
+        <v>0.09962497364307096</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03408507145813423</v>
+        <v>0.02667216864894193</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1348,23 +1588,30 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2910881765.850737</v>
+        <v>2701601703.515418</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1360850990501631</v>
+        <v>0.2033704001711098</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05132654980053768</v>
+        <v>0.03896050377307139</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1376,23 +1623,30 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1548085346.055938</v>
+        <v>1405586418.189464</v>
       </c>
       <c r="F34" t="n">
-        <v>0.07793156337389663</v>
+        <v>0.09896768717301614</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02612722353096541</v>
+        <v>0.02332529054691602</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1404,23 +1658,30 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1134928017.392153</v>
+        <v>1249679494.793967</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1024956931943854</v>
+        <v>0.07153462843943266</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03389543680219286</v>
+        <v>0.0290653618186448</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1432,23 +1693,30 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2168681719.577384</v>
+        <v>2919146384.00449</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1101310249752514</v>
+        <v>0.1453502770745075</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02001200341231705</v>
+        <v>0.0240480377183681</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>3</v>
+      </c>
+      <c r="J36" t="n">
+        <v>144</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1460,23 +1728,30 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2435571985.062447</v>
+        <v>2372007270.36559</v>
       </c>
       <c r="F37" t="n">
-        <v>0.09842019924357878</v>
+        <v>0.1091382740181564</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03282707245308477</v>
+        <v>0.04057954348346644</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1488,23 +1763,30 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1718700588.143996</v>
+        <v>2037326633.448621</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1027260834665421</v>
+        <v>0.1140718751116754</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03862277041287498</v>
+        <v>0.03713786760254872</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1522,17 +1804,24 @@
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>2173234356.618811</v>
+        <v>1435551446.011331</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1696072792139736</v>
+        <v>0.1781936388008286</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02034329945955321</v>
+        <v>0.02150492284985851</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1544,23 +1833,30 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1531713302.232341</v>
+        <v>1776920916.27372</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1000312372258929</v>
+        <v>0.1101080860436474</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05245892585961964</v>
+        <v>0.05237670876148152</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1572,23 +1868,30 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2931844098.719969</v>
+        <v>1816476878.141002</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1620006622550157</v>
+        <v>0.1644168689803982</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04610396844627363</v>
+        <v>0.04025157059081748</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1606,16 +1909,25 @@
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3180511781.29297</v>
+        <v>3373098873.261058</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1141391831982028</v>
+        <v>0.1233665149006673</v>
       </c>
       <c r="G42" t="n">
-        <v>0.0387826885761342</v>
+        <v>0.03897242958016667</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
+      </c>
+      <c r="I42" t="n">
+        <v>59</v>
+      </c>
+      <c r="J42" t="n">
+        <v>158</v>
+      </c>
+      <c r="K42" t="n">
+        <v>114.5222557007333</v>
       </c>
     </row>
     <row r="43">
@@ -1634,17 +1946,24 @@
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2212554413.967819</v>
+        <v>1924719868.111673</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1327124800397784</v>
+        <v>0.1259402903022345</v>
       </c>
       <c r="G43" t="n">
-        <v>0.021963239910065</v>
+        <v>0.01910891345635751</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1656,23 +1975,30 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1727948100.065208</v>
+        <v>2221810372.929768</v>
       </c>
       <c r="F44" t="n">
-        <v>0.09658333852473698</v>
+        <v>0.0944939957508506</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03091973578811713</v>
+        <v>0.03433301080027083</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1684,23 +2010,30 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1876588237.279868</v>
+        <v>1893418378.666466</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1501012871462273</v>
+        <v>0.1291255111667147</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05567102890108219</v>
+        <v>0.03945392510843111</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1712,22 +2045,31 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>3773503446.314254</v>
+        <v>3712643892.924477</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1283026429945897</v>
+        <v>0.1713773842318631</v>
       </c>
       <c r="G46" t="n">
-        <v>0.0407294790238175</v>
+        <v>0.04468362437593463</v>
       </c>
       <c r="H46" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>90</v>
+      </c>
+      <c r="J46" t="n">
+        <v>158</v>
+      </c>
+      <c r="K46" t="n">
+        <v>136.7570267775091</v>
       </c>
     </row>
     <row r="47">
@@ -1740,23 +2082,30 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3853951061.763852</v>
+        <v>4426311074.21963</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1557881784364932</v>
+        <v>0.1999175452891216</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05006640877336112</v>
+        <v>0.05685442424507989</v>
       </c>
       <c r="H47" t="b">
         <v>1</v>
       </c>
+      <c r="I47" t="n">
+        <v>70</v>
+      </c>
+      <c r="J47" t="n">
+        <v>159</v>
+      </c>
+      <c r="K47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1768,23 +2117,30 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3489925458.656465</v>
+        <v>3848446248.17634</v>
       </c>
       <c r="F48" t="n">
-        <v>0.08490688359608277</v>
+        <v>0.08817849657398533</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03142865301635514</v>
+        <v>0.03162204799990621</v>
       </c>
       <c r="H48" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>71</v>
+      </c>
+      <c r="J48" t="n">
+        <v>159</v>
+      </c>
+      <c r="K48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1802,17 +2158,24 @@
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1771608301.225021</v>
+        <v>1841930785.616028</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1375620841015948</v>
+        <v>0.1864110636697735</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04110317235285795</v>
+        <v>0.03131921139021502</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1824,23 +2187,30 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2668253127.468542</v>
+        <v>3983908580.199894</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1187909150091465</v>
+        <v>0.1548752143435413</v>
       </c>
       <c r="G50" t="n">
-        <v>0.05290891733372207</v>
+        <v>0.04268873309078254</v>
       </c>
       <c r="H50" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>52</v>
+      </c>
+      <c r="J50" t="n">
+        <v>159</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1858,17 +2228,24 @@
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>984163632.3648967</v>
+        <v>1248483073.693006</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1392905293765093</v>
+        <v>0.1875161108328915</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03964695310194223</v>
+        <v>0.04398361080270054</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1880,23 +2257,30 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3443502862.155868</v>
+        <v>3644761857.851342</v>
       </c>
       <c r="F52" t="n">
-        <v>0.09796551468537223</v>
+        <v>0.1146801589135125</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05512817491491023</v>
+        <v>0.05927728392886832</v>
       </c>
       <c r="H52" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>115</v>
+      </c>
+      <c r="J52" t="n">
+        <v>159</v>
+      </c>
+      <c r="K52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -1908,23 +2292,30 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2640221288.839822</v>
+        <v>3115419684.678154</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1387561806428766</v>
+        <v>0.1835608375285769</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03449930345664286</v>
+        <v>0.02786279549566505</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
       </c>
+      <c r="I53" t="n">
+        <v>20</v>
+      </c>
+      <c r="J53" t="n">
+        <v>151</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1936,22 +2327,31 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4911425146.72014</v>
+        <v>4884946679.606326</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1560670838314987</v>
+        <v>0.1095511832588251</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04155451987832976</v>
+        <v>0.03516262147417219</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
+      </c>
+      <c r="I54" t="n">
+        <v>77</v>
+      </c>
+      <c r="J54" t="n">
+        <v>159</v>
+      </c>
+      <c r="K54" t="n">
+        <v>138.5280167732226</v>
       </c>
     </row>
     <row r="55">
@@ -1964,23 +2364,30 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4655889443.950687</v>
+        <v>3771974474.421599</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1525838858580636</v>
+        <v>0.1876761810333366</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02444191075324355</v>
+        <v>0.03264612203982312</v>
       </c>
       <c r="H55" t="b">
         <v>1</v>
       </c>
+      <c r="I55" t="n">
+        <v>72</v>
+      </c>
+      <c r="J55" t="n">
+        <v>159</v>
+      </c>
+      <c r="K55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -1998,17 +2405,24 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1186798417.166366</v>
+        <v>1775186232.8995</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1332336281649738</v>
+        <v>0.1352491883751714</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05448518234424891</v>
+        <v>0.05511550184679231</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2020,22 +2434,31 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3295797483.381884</v>
+        <v>3889614760.328657</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1274642786178331</v>
+        <v>0.1218222199432987</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02157678792277235</v>
+        <v>0.01800231415395028</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
+      </c>
+      <c r="I57" t="n">
+        <v>65</v>
+      </c>
+      <c r="J57" t="n">
+        <v>158</v>
+      </c>
+      <c r="K57" t="n">
+        <v>132.1220907908468</v>
       </c>
     </row>
     <row r="58">
@@ -2054,17 +2477,24 @@
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1255799051.802289</v>
+        <v>1587139751.446488</v>
       </c>
       <c r="F58" t="n">
-        <v>0.2029259124706484</v>
+        <v>0.178780080065142</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03029902632583273</v>
+        <v>0.03117691209707337</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2076,22 +2506,31 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3492538382.798798</v>
+        <v>4760925717.769731</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1118651619780854</v>
+        <v>0.1136411433873707</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04885995766717569</v>
+        <v>0.04075749534363372</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>77</v>
+      </c>
+      <c r="J59" t="n">
+        <v>158</v>
+      </c>
+      <c r="K59" t="n">
+        <v>127.6216693986479</v>
       </c>
     </row>
     <row r="60">
@@ -2104,23 +2543,30 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2822307236.895157</v>
+        <v>3128536238.510184</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1721994886429926</v>
+        <v>0.1924325643352376</v>
       </c>
       <c r="G60" t="n">
-        <v>0.03040481025233867</v>
+        <v>0.02588414465963887</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
       </c>
+      <c r="I60" t="n">
+        <v>24</v>
+      </c>
+      <c r="J60" t="n">
+        <v>150</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2132,22 +2578,31 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3406773354.532763</v>
+        <v>2574490963.334989</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1365590330556669</v>
+        <v>0.1148128120863154</v>
       </c>
       <c r="G61" t="n">
-        <v>0.03251343748431763</v>
+        <v>0.0245752398455581</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
+      </c>
+      <c r="I61" t="n">
+        <v>5</v>
+      </c>
+      <c r="J61" t="n">
+        <v>158</v>
+      </c>
+      <c r="K61" t="n">
+        <v>70.76657212307022</v>
       </c>
     </row>
     <row r="62">
@@ -2160,23 +2615,30 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1573642282.839724</v>
+        <v>1299396460.508248</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1932005784110425</v>
+        <v>0.1844739743479538</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03696060801425947</v>
+        <v>0.03110071680334042</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2188,22 +2650,31 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4089913892.901138</v>
+        <v>5013998895.148668</v>
       </c>
       <c r="F63" t="n">
-        <v>0.07266593158155692</v>
+        <v>0.1026868905978144</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03626544457821829</v>
+        <v>0.04420995328731476</v>
       </c>
       <c r="H63" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>78</v>
+      </c>
+      <c r="J63" t="n">
+        <v>158</v>
+      </c>
+      <c r="K63" t="n">
+        <v>124.6116624480442</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2687,31 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4090022764.599165</v>
+        <v>3663214731.598021</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1909263229450446</v>
+        <v>0.1169954849032422</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02151182981568394</v>
+        <v>0.033214485153066</v>
       </c>
       <c r="H64" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>79</v>
+      </c>
+      <c r="J64" t="n">
+        <v>158</v>
+      </c>
+      <c r="K64" t="n">
+        <v>125.3707107907579</v>
       </c>
     </row>
     <row r="65">
@@ -2250,16 +2730,25 @@
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4853322521.650364</v>
+        <v>4693644773.258399</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1648819082669494</v>
+        <v>0.1513590315940392</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02352397511277897</v>
+        <v>0.02740813516925145</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>131</v>
+      </c>
+      <c r="J65" t="n">
+        <v>159</v>
+      </c>
+      <c r="K65" t="n">
+        <v>137.9639563674214</v>
       </c>
     </row>
     <row r="66">
@@ -2272,23 +2761,30 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4810987408.502968</v>
+        <v>5340925812.993036</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1501099379227977</v>
+        <v>0.1050118314271151</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03314107922145273</v>
+        <v>0.04379468910280616</v>
       </c>
       <c r="H66" t="b">
         <v>1</v>
       </c>
+      <c r="I66" t="n">
+        <v>78</v>
+      </c>
+      <c r="J66" t="n">
+        <v>159</v>
+      </c>
+      <c r="K66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2306,17 +2802,24 @@
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3046400575.906096</v>
+        <v>2570174703.443381</v>
       </c>
       <c r="F67" t="n">
-        <v>0.07891570992748222</v>
+        <v>0.09712546262887797</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04507176081813714</v>
+        <v>0.04820992851184197</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>1</v>
+      </c>
+      <c r="J67" t="n">
+        <v>157</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2328,22 +2831,31 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>6006829648.860924</v>
+        <v>5574311606.70915</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1104084911049674</v>
+        <v>0.1415323141509815</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03692787125438201</v>
+        <v>0.04616053334377573</v>
       </c>
       <c r="H68" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>80</v>
+      </c>
+      <c r="J68" t="n">
+        <v>158</v>
+      </c>
+      <c r="K68" t="n">
+        <v>127.7883423727906</v>
       </c>
     </row>
     <row r="69">
@@ -2362,17 +2874,24 @@
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1613620543.612189</v>
+        <v>2053381771.609206</v>
       </c>
       <c r="F69" t="n">
-        <v>0.115551410702243</v>
+        <v>0.150487459995643</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04556401005620879</v>
+        <v>0.04604560243775596</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2384,22 +2903,31 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2994016240.989493</v>
+        <v>3161042535.884721</v>
       </c>
       <c r="F70" t="n">
-        <v>0.07816146622743936</v>
+        <v>0.08915548981713298</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03055284634793769</v>
+        <v>0.04486950353650129</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
+      </c>
+      <c r="I70" t="n">
+        <v>22</v>
+      </c>
+      <c r="J70" t="n">
+        <v>158</v>
+      </c>
+      <c r="K70" t="n">
+        <v>91.09326276418598</v>
       </c>
     </row>
     <row r="71">
@@ -2412,23 +2940,30 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4341580661.550953</v>
+        <v>4672977016.550086</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1188947464422738</v>
+        <v>0.1364200743095455</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03322803566960601</v>
+        <v>0.02314379628184565</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
       </c>
+      <c r="I71" t="n">
+        <v>124</v>
+      </c>
+      <c r="J71" t="n">
+        <v>159</v>
+      </c>
+      <c r="K71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2440,23 +2975,30 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1710926235.52999</v>
+        <v>2098247421.051385</v>
       </c>
       <c r="F72" t="n">
-        <v>0.07264600193092823</v>
+        <v>0.0976304741101572</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03788733607235636</v>
+        <v>0.03624842910893031</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2468,23 +3010,30 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2346399771.996933</v>
+        <v>2320294197.44977</v>
       </c>
       <c r="F73" t="n">
-        <v>0.0857556745760621</v>
+        <v>0.1092886558393948</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04409786561087039</v>
+        <v>0.05269244671531874</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>10</v>
+      </c>
+      <c r="J73" t="n">
+        <v>134</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2502,17 +3051,24 @@
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3400986998.323945</v>
+        <v>2953222503.852458</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1528900595594782</v>
+        <v>0.1344037906659521</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02614962249095992</v>
+        <v>0.0237119617543736</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
       </c>
+      <c r="I74" t="n">
+        <v>48</v>
+      </c>
+      <c r="J74" t="n">
+        <v>157</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2524,23 +3080,30 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2176792177.174377</v>
+        <v>2252498294.222681</v>
       </c>
       <c r="F75" t="n">
-        <v>0.149989387637027</v>
+        <v>0.1149406128910507</v>
       </c>
       <c r="G75" t="n">
-        <v>0.0356143669306803</v>
+        <v>0.03109673863065874</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2552,22 +3115,31 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4494744934.840904</v>
+        <v>3318909531.408876</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1097395452483977</v>
+        <v>0.08235436012214677</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03255140835887638</v>
+        <v>0.0208380745033353</v>
       </c>
       <c r="H76" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>73</v>
+      </c>
+      <c r="J76" t="n">
+        <v>158</v>
+      </c>
+      <c r="K76" t="n">
+        <v>89.19470196809226</v>
       </c>
     </row>
     <row r="77">
@@ -2580,23 +3152,30 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2189486135.049282</v>
+        <v>1607632322.041231</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1423967256939358</v>
+        <v>0.1353606941205855</v>
       </c>
       <c r="G77" t="n">
-        <v>0.0317894584674745</v>
+        <v>0.028236655615945</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2614,16 +3193,25 @@
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4643409464.47854</v>
+        <v>4519796631.07824</v>
       </c>
       <c r="F78" t="n">
-        <v>0.101984114248485</v>
+        <v>0.1208200925339029</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04604674687743796</v>
+        <v>0.03749015062615443</v>
       </c>
       <c r="H78" t="b">
         <v>1</v>
+      </c>
+      <c r="I78" t="n">
+        <v>80</v>
+      </c>
+      <c r="J78" t="n">
+        <v>159</v>
+      </c>
+      <c r="K78" t="n">
+        <v>140.3872612022985</v>
       </c>
     </row>
     <row r="79">
@@ -2636,23 +3224,30 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1809383414.937339</v>
+        <v>1264707263.564299</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1148360627820378</v>
+        <v>0.1207341688585719</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02967525246102366</v>
+        <v>0.02586709320657452</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2664,23 +3259,30 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4470063819.487337</v>
+        <v>5126682257.331636</v>
       </c>
       <c r="F80" t="n">
-        <v>0.0901302982522368</v>
+        <v>0.1088967621586826</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03223661393778068</v>
+        <v>0.03119007606513896</v>
       </c>
       <c r="H80" t="b">
         <v>1</v>
       </c>
+      <c r="I80" t="n">
+        <v>77</v>
+      </c>
+      <c r="J80" t="n">
+        <v>159</v>
+      </c>
+      <c r="K80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -2692,22 +3294,31 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4019173184.41995</v>
+        <v>3557693915.280643</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1184020484139189</v>
+        <v>0.1044375775005387</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02747110331814835</v>
+        <v>0.02954230481891112</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
+      </c>
+      <c r="I81" t="n">
+        <v>73</v>
+      </c>
+      <c r="J81" t="n">
+        <v>158</v>
+      </c>
+      <c r="K81" t="n">
+        <v>107.9509043545732</v>
       </c>
     </row>
     <row r="82">
@@ -2720,22 +3331,31 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5114884958.087447</v>
+        <v>3577560031.01758</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1816767921211111</v>
+        <v>0.1762852962605145</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01843334371661899</v>
+        <v>0.0240588991231729</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
+      </c>
+      <c r="I82" t="n">
+        <v>116</v>
+      </c>
+      <c r="J82" t="n">
+        <v>158</v>
+      </c>
+      <c r="K82" t="n">
+        <v>134.3490958666462</v>
       </c>
     </row>
     <row r="83">
@@ -2748,23 +3368,30 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2299083439.894683</v>
+        <v>1721221825.054206</v>
       </c>
       <c r="F83" t="n">
-        <v>0.09989218884607039</v>
+        <v>0.1067453770973215</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04078235541550428</v>
+        <v>0.04490387463209736</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2776,23 +3403,30 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2295489423.429325</v>
+        <v>1939156224.165668</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1027994682385166</v>
+        <v>0.08646908834512661</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03253470529775412</v>
+        <v>0.05171855972029511</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2804,23 +3438,30 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2260990599.234982</v>
+        <v>2411149982.370103</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1465275512010937</v>
+        <v>0.1328210776397132</v>
       </c>
       <c r="G85" t="n">
-        <v>0.0360336385496175</v>
+        <v>0.03724690728550421</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
       </c>
+      <c r="I85" t="n">
+        <v>24</v>
+      </c>
+      <c r="J85" t="n">
+        <v>143</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2832,23 +3473,30 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2770018591.123805</v>
+        <v>1896864408.922128</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1094092483278173</v>
+        <v>0.1521971862340474</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02072342916154876</v>
+        <v>0.02735947587063219</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2860,23 +3508,30 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1328657107.343771</v>
+        <v>1168681950.593433</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1561141729434597</v>
+        <v>0.1173966392781684</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03357581618199453</v>
+        <v>0.02689378145777205</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2888,23 +3543,30 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3293531066.775106</v>
+        <v>2906595422.978266</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1415837467157354</v>
+        <v>0.1478665220990319</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03636304716127544</v>
+        <v>0.02951255747262349</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
       </c>
+      <c r="I88" t="n">
+        <v>23</v>
+      </c>
+      <c r="J88" t="n">
+        <v>157</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2916,23 +3578,30 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3265907332.467792</v>
+        <v>2858994228.456232</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1596374571383262</v>
+        <v>0.1367655369276162</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02764997742821611</v>
+        <v>0.02938774424852713</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>13</v>
+      </c>
+      <c r="J89" t="n">
+        <v>152</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2944,23 +3613,30 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1337609733.190968</v>
+        <v>1720964952.269802</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1096831825566406</v>
+        <v>0.1151690994310855</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04433018990325952</v>
+        <v>0.05340789704951759</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2978,17 +3654,24 @@
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1436972335.008705</v>
+        <v>1786883653.414786</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1695681540368978</v>
+        <v>0.1587018710872949</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04270766590073766</v>
+        <v>0.04773514598033724</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3000,23 +3683,30 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2014487114.582821</v>
+        <v>2053414309.40114</v>
       </c>
       <c r="F92" t="n">
-        <v>0.1068881069883273</v>
+        <v>0.1084413636473917</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03222738485705511</v>
+        <v>0.04421732365097576</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3028,23 +3718,30 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4326069596.035794</v>
+        <v>3114351864.224532</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1225310788458534</v>
+        <v>0.1352190689901002</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04061065964256838</v>
+        <v>0.05269586938671192</v>
       </c>
       <c r="H93" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>71</v>
+      </c>
+      <c r="J93" t="n">
+        <v>156</v>
+      </c>
+      <c r="K93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3056,23 +3753,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1549768408.608547</v>
+        <v>2420970068.744181</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1307030138565975</v>
+        <v>0.1215333065426656</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02809842219728119</v>
+        <v>0.03841475696929765</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3084,23 +3788,30 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2333484207.362702</v>
+        <v>3243568549.17783</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1296412060301768</v>
+        <v>0.113935163496636</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04762426700055201</v>
+        <v>0.04713085127463057</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>127</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3823,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2283114948.735578</v>
+        <v>1750184848.923357</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1173537994375767</v>
+        <v>0.1093473534687006</v>
       </c>
       <c r="G96" t="n">
-        <v>0.039016875413924</v>
+        <v>0.03867475488656551</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3140,23 +3858,30 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>5020134228.45152</v>
+        <v>3808856754.575256</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1179367411293364</v>
+        <v>0.173411231711333</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02662145579572619</v>
+        <v>0.02107053164552302</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
       </c>
+      <c r="I97" t="n">
+        <v>76</v>
+      </c>
+      <c r="J97" t="n">
+        <v>159</v>
+      </c>
+      <c r="K97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3168,23 +3893,30 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3613830675.616025</v>
+        <v>2513191990.197615</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1293356363988984</v>
+        <v>0.09441724330008602</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02593906397990393</v>
+        <v>0.02626916647196871</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
       </c>
+      <c r="I98" t="n">
+        <v>37</v>
+      </c>
+      <c r="J98" t="n">
+        <v>155</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3196,23 +3928,30 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2166114937.940753</v>
+        <v>2740557197.445891</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1254436432170154</v>
+        <v>0.1270243962614606</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02514973561764322</v>
+        <v>0.03016371523356742</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>2</v>
+      </c>
+      <c r="J99" t="n">
+        <v>135</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3224,23 +3963,30 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4138791206.756925</v>
+        <v>3484761946.763105</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1206537473201547</v>
+        <v>0.1448360385282173</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02006385885685501</v>
+        <v>0.0264259912470984</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
       </c>
+      <c r="I100" t="n">
+        <v>66</v>
+      </c>
+      <c r="J100" t="n">
+        <v>157</v>
+      </c>
+      <c r="K100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3252,22 +3998,31 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2276208805.561275</v>
+        <v>2298935462.321423</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2062020817775661</v>
+        <v>0.2128552856018879</v>
       </c>
       <c r="G101" t="n">
-        <v>0.03753926585353678</v>
+        <v>0.04909777784483182</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
+      </c>
+      <c r="I101" t="n">
+        <v>13</v>
+      </c>
+      <c r="J101" t="n">
+        <v>158</v>
+      </c>
+      <c r="K101" t="n">
+        <v>51.14979737022489</v>
       </c>
     </row>
   </sheetData>
